--- a/xlsx/country_comparison/my_tax_global_nation_share.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_share.xlsx
@@ -419,34 +419,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.430474085565535</v>
+        <v>0.447852473243662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.647576952933228</v>
+        <v>0.608755853704411</v>
       </c>
       <c r="D2" t="n">
-        <v>0.810242874935913</v>
+        <v>0.743862796481098</v>
       </c>
       <c r="E2" t="n">
-        <v>0.38177874186551</v>
+        <v>0.571496725347356</v>
       </c>
       <c r="F2" t="n">
-        <v>0.72997992121804</v>
+        <v>0.652983486716405</v>
       </c>
       <c r="G2" t="n">
-        <v>0.904922184252219</v>
+        <v>0.888178830527355</v>
       </c>
       <c r="H2" t="n">
-        <v>0.641094715483172</v>
+        <v>0.686862189173777</v>
       </c>
       <c r="I2" t="n">
-        <v>0.528525301577217</v>
+        <v>0.526173743845599</v>
       </c>
       <c r="J2" t="n">
-        <v>0.568706026363435</v>
+        <v>0.582337131607456</v>
       </c>
       <c r="K2" t="n">
-        <v>0.627130825046913</v>
+        <v>0.548977603728209</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/my_tax_global_nation_share.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_share.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
@@ -413,40 +419,52 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.447852473243662</v>
+        <v>0.595124310025602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.608755853704411</v>
+        <v>0.609896497471146</v>
       </c>
       <c r="D2" t="n">
-        <v>0.743862796481098</v>
+        <v>0.432966587857026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.571496725347356</v>
+        <v>0.623667021276442</v>
       </c>
       <c r="F2" t="n">
-        <v>0.652983486716405</v>
+        <v>0.765866950290479</v>
       </c>
       <c r="G2" t="n">
-        <v>0.888178830527355</v>
+        <v>0.633729019702456</v>
       </c>
       <c r="H2" t="n">
-        <v>0.686862189173777</v>
+        <v>0.702512213956321</v>
       </c>
       <c r="I2" t="n">
-        <v>0.526173743845599</v>
+        <v>0.575699232924345</v>
       </c>
       <c r="J2" t="n">
-        <v>0.582337131607456</v>
+        <v>0.53058178548063</v>
       </c>
       <c r="K2" t="n">
-        <v>0.548977603728209</v>
+        <v>0.586053629823191</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.887006592651732</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.554248692846476</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/my_tax_global_nation_share.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -425,13 +428,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.595124310025602</v>
+        <v>0.592409982650417</v>
       </c>
       <c r="C2" t="n">
         <v>0.609896497471146</v>
@@ -461,9 +467,12 @@
         <v>0.586053629823191</v>
       </c>
       <c r="L2" t="n">
+        <v>0.575524428218208</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.887006592651732</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.554248692846476</v>
       </c>
     </row>

--- a/xlsx/country_comparison/my_tax_global_nation_share.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_share.xlsx
@@ -437,7 +437,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.592409982650417</v>
+        <v>0.592122368373113</v>
       </c>
       <c r="C2" t="n">
         <v>0.609896497471146</v>
@@ -464,16 +464,16 @@
         <v>0.53058178548063</v>
       </c>
       <c r="K2" t="n">
-        <v>0.586053629823191</v>
+        <v>0.586217425103406</v>
       </c>
       <c r="L2" t="n">
-        <v>0.575524428218208</v>
+        <v>0.573818682809178</v>
       </c>
       <c r="M2" t="n">
         <v>0.887006592651732</v>
       </c>
       <c r="N2" t="n">
-        <v>0.554248692846476</v>
+        <v>0.554098197443099</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/my_tax_global_nation_share.xlsx
+++ b/xlsx/country_comparison/my_tax_global_nation_share.xlsx
@@ -437,7 +437,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.592122368373113</v>
+        <v>0.591975291077805</v>
       </c>
       <c r="C2" t="n">
         <v>0.609896497471146</v>
@@ -467,7 +467,7 @@
         <v>0.586217425103406</v>
       </c>
       <c r="L2" t="n">
-        <v>0.573818682809178</v>
+        <v>0.572781630922761</v>
       </c>
       <c r="M2" t="n">
         <v>0.887006592651732</v>
